--- a/data/case1/13/P2_1.xlsx
+++ b/data/case1/13/P2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.35020089811207811</v>
+        <v>0.41829962205201809</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.009999999361344436</v>
+        <v>-0.020067497354389729</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999993527740685</v>
+        <v>-0.0089999993060594363</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999837502884</v>
+        <v>-0.011999999806480588</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.025043606595519741</v>
+        <v>-0.0059999993120340989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999993466242074</v>
+        <v>-0.0059999992887895814</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999234633137</v>
+        <v>-0.019999999166191884</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999232753751</v>
+        <v>-0.019999999161349535</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999993434534105</v>
+        <v>-0.0059999992782371336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999993440555954</v>
+        <v>-0.0059999992754882214</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.027252943235293259</v>
+        <v>-0.0044999992883241191</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999993458728085</v>
+        <v>-0.0059999992752750586</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999993532366958</v>
+        <v>-0.0059999992751471609</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.075947249054630461</v>
+        <v>0.032028107619060719</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999993548727204</v>
+        <v>-0.0059999992731185614</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999993530142071</v>
+        <v>-0.0059999992708243965</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999993505890359</v>
+        <v>-0.0059999992677779446</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999993263152334</v>
+        <v>-0.0089999992412268526</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999993679783508</v>
+        <v>-0.077461652472959219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.008999999347748755</v>
+        <v>-0.0089999993206166806</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999993433904635</v>
+        <v>-0.0089999993196858696</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.072868682536307627</v>
+        <v>-0.0089999993190659211</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999993473330875</v>
+        <v>-0.0089999993000953182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999077221517</v>
+        <v>-0.041999999004135091</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999072360517</v>
+        <v>-0.04199999899877227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999993442190203</v>
+        <v>-0.0059999992861783369</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999993406973928</v>
+        <v>-0.0059999992826855753</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999993268515794</v>
+        <v>-0.0051195427703385477</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999269756145</v>
+        <v>-0.011999999206000922</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999201686158</v>
+        <v>-0.02275176722065364</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999234825978</v>
+        <v>-0.014999999167903511</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999186241958</v>
+        <v>-0.020999999114923007</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999993050183775</v>
+        <v>-0.0059999992440955552</v>
       </c>
     </row>
   </sheetData>
